--- a/artfynd/A 54665-2022.xlsx
+++ b/artfynd/A 54665-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17162672</v>
+        <v>17177744</v>
       </c>
       <c r="B2" t="n">
-        <v>89376</v>
+        <v>93145</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,36 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4660</v>
+        <v>2667</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>596445.2567064186</v>
+        <v>596512.1226172579</v>
       </c>
       <c r="R2" t="n">
-        <v>6550238.955486102</v>
+        <v>6550345.023338513</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -772,7 +773,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Klen högstubbe av asp.</t>
+          <t>På block och lodyta. Nyckelbiotopsstatus.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,7 +782,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17177735</v>
+        <v>17177743</v>
       </c>
       <c r="B3" t="n">
         <v>93132</v>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>596484.0673687706</v>
+        <v>596508.9821110814</v>
       </c>
       <c r="R3" t="n">
-        <v>6550191.084131638</v>
+        <v>6550347.00089203</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Riklig förekomst på block, lodytor och enstaka aspstammar.</t>
+          <t>Riklig förekomst på block, lodytor och enstaka trädbaser.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17177744</v>
+        <v>17177745</v>
       </c>
       <c r="B4" t="n">
-        <v>93145</v>
+        <v>92939</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,21 +936,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2667</v>
+        <v>2779</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På block och lodyta. Nyckelbiotopsstatus.</t>
+          <t>Lodyta</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1040,7 +1040,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17177743</v>
+        <v>17177741</v>
       </c>
       <c r="B5" t="n">
         <v>93132</v>
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>596508.9821110814</v>
+        <v>596502.1510387775</v>
       </c>
       <c r="R5" t="n">
-        <v>6550347.00089203</v>
+        <v>6550331.917076289</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Riklig förekomst på block, lodytor och enstaka trädbaser.</t>
+          <t>Riklig förekomst på block, lodytor och enstaka trädbaser. Blockrik bergbrant med nyckelbiotopsstatus.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1160,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17177745</v>
+        <v>17177739</v>
       </c>
       <c r="B6" t="n">
-        <v>92939</v>
+        <v>89940</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1176,37 +1176,36 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2779</v>
+        <v>3884</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>596512.1226172579</v>
+        <v>596515.088978241</v>
       </c>
       <c r="R6" t="n">
-        <v>6550345.023338513</v>
+        <v>6550309.1046673</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1253,7 +1252,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Lodyta</t>
+          <t>Flera döda stammar.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1262,6 +1261,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17177741</v>
+        <v>17177742</v>
       </c>
       <c r="B7" t="n">
-        <v>93132</v>
+        <v>4717</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1296,37 +1296,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2671</v>
+        <v>102306</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>596502.1510387775</v>
+        <v>596494.09243898</v>
       </c>
       <c r="R7" t="n">
-        <v>6550331.917076289</v>
+        <v>6550345.08282318</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1373,7 +1375,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Riklig förekomst på block, lodytor och enstaka trädbaser. Blockrik bergbrant med nyckelbiotopsstatus.</t>
+          <t>Kläckhål på gammal grov gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1400,10 +1402,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17177734</v>
+        <v>17177746</v>
       </c>
       <c r="B8" t="n">
-        <v>93132</v>
+        <v>89412</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1412,41 +1414,48 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2671</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>596443.9843037433</v>
+        <v>596514.216958874</v>
       </c>
       <c r="R8" t="n">
-        <v>6550228.125120561</v>
+        <v>6550364.101154891</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1491,17 +1500,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Riklig förekomst på block.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1520,10 +1525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17177736</v>
+        <v>17180057</v>
       </c>
       <c r="B9" t="n">
-        <v>89652</v>
+        <v>93145</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1532,48 +1537,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73</v>
+        <v>2667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Hedw.) Huebener</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>596503.1774122283</v>
+        <v>596513.8151775175</v>
       </c>
       <c r="R9" t="n">
-        <v>6550127.803339794</v>
+        <v>6550380.030807917</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1620,7 +1618,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Grov asplåga.</t>
+          <t>På gammal asp och block.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1629,7 +1627,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1648,10 +1645,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17177737</v>
+        <v>17180059</v>
       </c>
       <c r="B10" t="n">
-        <v>90138</v>
+        <v>93235</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1660,40 +1657,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>366</v>
+        <v>210</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>596503.1774122283</v>
+        <v>596440.0180564586</v>
       </c>
       <c r="R10" t="n">
-        <v>6550127.803339794</v>
+        <v>6550405.936094929</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1740,7 +1746,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Grov asplåga.</t>
+          <t>20 sporkapslar på gammal granlåga.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1749,7 +1755,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1768,10 +1773,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17177739</v>
+        <v>17180058</v>
       </c>
       <c r="B11" t="n">
-        <v>89940</v>
+        <v>4717</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1784,36 +1789,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3884</v>
+        <v>102306</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>596515.088978241</v>
+        <v>596463.7622184914</v>
       </c>
       <c r="R11" t="n">
-        <v>6550309.1046673</v>
+        <v>6550403.963688263</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1860,7 +1868,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Flera döda stammar.</t>
+          <t>Kläckhål på gammal gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1869,7 +1877,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1888,10 +1895,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17177742</v>
+        <v>17162672</v>
       </c>
       <c r="B12" t="n">
-        <v>4717</v>
+        <v>89376</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1904,39 +1911,36 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>102306</v>
+        <v>4660</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>596494.09243898</v>
+        <v>596445.2567064186</v>
       </c>
       <c r="R12" t="n">
-        <v>6550345.08282318</v>
+        <v>6550238.955486102</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1983,7 +1987,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Kläckhål på gammal grov gran.</t>
+          <t>Klen högstubbe av asp.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1992,6 +1996,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2010,10 +2015,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17177746</v>
+        <v>17177735</v>
       </c>
       <c r="B13" t="n">
-        <v>89412</v>
+        <v>93132</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2022,48 +2027,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5442</v>
+        <v>2671</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hedw.) Brid.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>596514.216958874</v>
+        <v>596484.0673687706</v>
       </c>
       <c r="R13" t="n">
-        <v>6550364.101154891</v>
+        <v>6550191.084131638</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2108,13 +2106,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Riklig förekomst på block, lodytor och enstaka aspstammar.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2133,10 +2135,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17180057</v>
+        <v>17177734</v>
       </c>
       <c r="B14" t="n">
-        <v>93145</v>
+        <v>93132</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2149,21 +2151,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2176,10 +2178,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>596513.8151775175</v>
+        <v>596443.9843037433</v>
       </c>
       <c r="R14" t="n">
-        <v>6550380.030807917</v>
+        <v>6550228.125120561</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2226,7 +2228,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På gammal asp och block.</t>
+          <t>Riklig förekomst på block.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2253,10 +2255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17180059</v>
+        <v>17177736</v>
       </c>
       <c r="B15" t="n">
-        <v>93235</v>
+        <v>89652</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2265,49 +2267,48 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>kapslar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>596440.0180564586</v>
+        <v>596503.1774122283</v>
       </c>
       <c r="R15" t="n">
-        <v>6550405.936094929</v>
+        <v>6550127.803339794</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2354,7 +2355,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>20 sporkapslar på gammal granlåga.</t>
+          <t>Grov asplåga.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2363,6 +2364,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2381,10 +2383,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17180058</v>
+        <v>17177737</v>
       </c>
       <c r="B16" t="n">
-        <v>4717</v>
+        <v>90138</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2393,43 +2395,40 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>102306</v>
+        <v>366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>596463.7622184914</v>
+        <v>596503.1774122283</v>
       </c>
       <c r="R16" t="n">
-        <v>6550403.963688263</v>
+        <v>6550127.803339794</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2476,7 +2475,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Kläckhål på gammal gran.</t>
+          <t>Grov asplåga.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2485,6 +2484,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 54665-2022.xlsx
+++ b/artfynd/A 54665-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17177744</v>
+        <v>17162672</v>
       </c>
       <c r="B2" t="n">
-        <v>93145</v>
+        <v>89376</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,36 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2667</v>
+        <v>4660</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Rävticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Inocutis rheades</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Pers.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>596512.1226172579</v>
+        <v>596445.2567064186</v>
       </c>
       <c r="R2" t="n">
-        <v>6550345.023338513</v>
+        <v>6550238.955486102</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -773,7 +772,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På block och lodyta. Nyckelbiotopsstatus.</t>
+          <t>Klen högstubbe av asp.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,6 +781,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17177743</v>
+        <v>17177735</v>
       </c>
       <c r="B3" t="n">
         <v>93132</v>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>596508.9821110814</v>
+        <v>596484.0673687706</v>
       </c>
       <c r="R3" t="n">
-        <v>6550347.00089203</v>
+        <v>6550191.084131638</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Riklig förekomst på block, lodytor och enstaka trädbaser.</t>
+          <t>Riklig förekomst på block, lodytor och enstaka aspstammar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17177745</v>
+        <v>17177744</v>
       </c>
       <c r="B4" t="n">
-        <v>92939</v>
+        <v>93145</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,21 +936,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2779</v>
+        <v>2667</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Lodyta</t>
+          <t>På block och lodyta. Nyckelbiotopsstatus.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1040,7 +1040,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17177741</v>
+        <v>17177743</v>
       </c>
       <c r="B5" t="n">
         <v>93132</v>
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>596502.1510387775</v>
+        <v>596508.9821110814</v>
       </c>
       <c r="R5" t="n">
-        <v>6550331.917076289</v>
+        <v>6550347.00089203</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Riklig förekomst på block, lodytor och enstaka trädbaser. Blockrik bergbrant med nyckelbiotopsstatus.</t>
+          <t>Riklig förekomst på block, lodytor och enstaka trädbaser.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1160,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17177739</v>
+        <v>17177745</v>
       </c>
       <c r="B6" t="n">
-        <v>89940</v>
+        <v>92939</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1176,36 +1176,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3884</v>
+        <v>2779</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>596515.088978241</v>
+        <v>596512.1226172579</v>
       </c>
       <c r="R6" t="n">
-        <v>6550309.1046673</v>
+        <v>6550345.023338513</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1252,7 +1253,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Flera döda stammar.</t>
+          <t>Lodyta</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1261,7 +1262,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17177742</v>
+        <v>17177741</v>
       </c>
       <c r="B7" t="n">
-        <v>4717</v>
+        <v>93132</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1296,39 +1296,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102306</v>
+        <v>2671</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>596494.09243898</v>
+        <v>596502.1510387775</v>
       </c>
       <c r="R7" t="n">
-        <v>6550345.08282318</v>
+        <v>6550331.917076289</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1375,7 +1373,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Kläckhål på gammal grov gran.</t>
+          <t>Riklig förekomst på block, lodytor och enstaka trädbaser. Blockrik bergbrant med nyckelbiotopsstatus.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1402,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17177746</v>
+        <v>17177734</v>
       </c>
       <c r="B8" t="n">
-        <v>89412</v>
+        <v>93132</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1414,48 +1412,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5442</v>
+        <v>2671</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hedw.) Brid.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>596514.216958874</v>
+        <v>596443.9843037433</v>
       </c>
       <c r="R8" t="n">
-        <v>6550364.101154891</v>
+        <v>6550228.125120561</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1500,13 +1491,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Riklig förekomst på block.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1525,10 +1520,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17180057</v>
+        <v>17177736</v>
       </c>
       <c r="B9" t="n">
-        <v>93145</v>
+        <v>89652</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1537,41 +1532,48 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2667</v>
+        <v>73</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(Pilát) Audet</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>596513.8151775175</v>
+        <v>596503.1774122283</v>
       </c>
       <c r="R9" t="n">
-        <v>6550380.030807917</v>
+        <v>6550127.803339794</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1618,7 +1620,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På gammal asp och block.</t>
+          <t>Grov asplåga.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1627,6 +1629,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1645,10 +1648,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17180059</v>
+        <v>17177737</v>
       </c>
       <c r="B10" t="n">
-        <v>93235</v>
+        <v>90138</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1657,49 +1660,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>210</v>
+        <v>366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>596440.0180564586</v>
+        <v>596503.1774122283</v>
       </c>
       <c r="R10" t="n">
-        <v>6550405.936094929</v>
+        <v>6550127.803339794</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1746,7 +1740,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>20 sporkapslar på gammal granlåga.</t>
+          <t>Grov asplåga.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1755,6 +1749,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1773,10 +1768,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17180058</v>
+        <v>17177739</v>
       </c>
       <c r="B11" t="n">
-        <v>4717</v>
+        <v>89940</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1789,39 +1784,36 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>102306</v>
+        <v>3884</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>596463.7622184914</v>
+        <v>596515.088978241</v>
       </c>
       <c r="R11" t="n">
-        <v>6550403.963688263</v>
+        <v>6550309.1046673</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1868,7 +1860,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Kläckhål på gammal gran.</t>
+          <t>Flera döda stammar.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1877,6 +1869,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1895,10 +1888,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17162672</v>
+        <v>17177742</v>
       </c>
       <c r="B12" t="n">
-        <v>89376</v>
+        <v>4717</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1911,36 +1904,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4660</v>
+        <v>102306</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rävticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Inocutis rheades</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Pers.) Fiasson &amp; Niemelä</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>596445.2567064186</v>
+        <v>596494.09243898</v>
       </c>
       <c r="R12" t="n">
-        <v>6550238.955486102</v>
+        <v>6550345.08282318</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1987,7 +1983,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Klen högstubbe av asp.</t>
+          <t>Kläckhål på gammal grov gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1996,7 +1992,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2015,10 +2010,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17177735</v>
+        <v>17177746</v>
       </c>
       <c r="B13" t="n">
-        <v>93132</v>
+        <v>89412</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2027,41 +2022,48 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2671</v>
+        <v>5442</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>596484.0673687706</v>
+        <v>596514.216958874</v>
       </c>
       <c r="R13" t="n">
-        <v>6550191.084131638</v>
+        <v>6550364.101154891</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2106,17 +2108,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Riklig förekomst på block, lodytor och enstaka aspstammar.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2135,10 +2133,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17177734</v>
+        <v>17180057</v>
       </c>
       <c r="B14" t="n">
-        <v>93132</v>
+        <v>93145</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2151,21 +2149,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2178,10 +2176,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>596443.9843037433</v>
+        <v>596513.8151775175</v>
       </c>
       <c r="R14" t="n">
-        <v>6550228.125120561</v>
+        <v>6550380.030807917</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2228,7 +2226,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Riklig förekomst på block.</t>
+          <t>På gammal asp och block.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2255,10 +2253,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17177736</v>
+        <v>17180059</v>
       </c>
       <c r="B15" t="n">
-        <v>89652</v>
+        <v>93235</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,48 +2265,49 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>kapslar</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>596503.1774122283</v>
+        <v>596440.0180564586</v>
       </c>
       <c r="R15" t="n">
-        <v>6550127.803339794</v>
+        <v>6550405.936094929</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2355,7 +2354,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Grov asplåga.</t>
+          <t>20 sporkapslar på gammal granlåga.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2364,7 +2363,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2383,10 +2381,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17177737</v>
+        <v>17180058</v>
       </c>
       <c r="B16" t="n">
-        <v>90138</v>
+        <v>4717</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2395,40 +2393,43 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>366</v>
+        <v>102306</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>S Kramnäs, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>596503.1774122283</v>
+        <v>596463.7622184914</v>
       </c>
       <c r="R16" t="n">
-        <v>6550127.803339794</v>
+        <v>6550403.963688263</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2475,7 +2476,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Grov asplåga.</t>
+          <t>Kläckhål på gammal gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2484,7 +2485,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
